--- a/ML/Pandas/14. Plotting/student.xlsx
+++ b/ML/Pandas/14. Plotting/student.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\php_files\z~7502\plus2net\python\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prog Backup\10. GitHub\ML-DL-Practice-Assignments\ML\Pandas\14. Plotting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6620"/>
   </bookViews>
   <sheets>
     <sheet name="student" sheetId="1" r:id="rId1"/>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -534,12 +534,12 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -556,7 +556,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>1</v>
       </c>
@@ -573,7 +573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>2</v>
       </c>
@@ -590,7 +590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>3</v>
       </c>
@@ -607,7 +607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5">
         <v>4</v>
       </c>
@@ -624,7 +624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6">
         <v>5</v>
       </c>
@@ -641,7 +641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7">
         <v>6</v>
       </c>
@@ -658,7 +658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8">
         <v>7</v>
       </c>
@@ -675,7 +675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9">
         <v>8</v>
       </c>
@@ -692,7 +692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10">
         <v>9</v>
       </c>
@@ -709,7 +709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11">
         <v>10</v>
       </c>
@@ -726,7 +726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12">
         <v>11</v>
       </c>
@@ -743,7 +743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A13">
         <v>12</v>
       </c>
@@ -760,7 +760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A14">
         <v>13</v>
       </c>
@@ -777,7 +777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A15">
         <v>14</v>
       </c>
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A16">
         <v>15</v>
       </c>
@@ -811,7 +811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A17">
         <v>16</v>
       </c>
@@ -828,7 +828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A18">
         <v>17</v>
       </c>
@@ -845,7 +845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A19">
         <v>18</v>
       </c>
@@ -862,7 +862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A20">
         <v>19</v>
       </c>
@@ -879,7 +879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A21">
         <v>20</v>
       </c>
@@ -896,7 +896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A22">
         <v>21</v>
       </c>
@@ -913,7 +913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A23">
         <v>22</v>
       </c>
@@ -930,7 +930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A24">
         <v>23</v>
       </c>
@@ -947,7 +947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A25">
         <v>24</v>
       </c>
@@ -964,7 +964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A26">
         <v>25</v>
       </c>
@@ -981,7 +981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A27">
         <v>26</v>
       </c>
@@ -998,7 +998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A36">
         <v>35</v>
       </c>
